--- a/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/Version.xlsx
+++ b/MillenniumHistory/MillenniumHistoryWindows/DatabaseGenerateServer/DatabaseGenerateServerBase/Resource/AncientBooksInput/Version.xlsx
@@ -106,7 +106,7 @@
     <t>otherAuthor</t>
   </si>
   <si>
-    <t>authorDescribe</t>
+    <t>authorNotes</t>
   </si>
   <si>
     <t>內府刊本</t>
@@ -3836,8 +3836,8 @@
   <sheetPr/>
   <dimension ref="A1:J5879"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A3617" workbookViewId="0">
-      <selection activeCell="A3635" sqref="A3635"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77777777777778" defaultRowHeight="15.6"/>
